--- a/TAEE/web/resources/plantillas/Empresa.xlsx
+++ b/TAEE/web/resources/plantillas/Empresa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nombre</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>RFC de la Empresa</t>
+  </si>
+  <si>
+    <t>Correo de Empresa</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +403,10 @@
     <col min="6" max="6" width="11.42578125" style="3"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,6 +430,9 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
